--- a/employee_data.xlsx
+++ b/employee_data.xlsx
@@ -9,14 +9,19 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$G$11</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="¥#,##0"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -472,110 +479,110 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>山田太郎</t>
+          <t>佐藤一郎</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>営業部</t>
+          <t>技術部</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>課長</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>350000</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2015-04-01</t>
+          <t>部長</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>450000</v>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2010-04-01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>yamada.t@example.com</t>
+          <t>sato.i@example.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>鈴木花子</t>
+          <t>伊藤光男</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>人事部</t>
+          <t>技術部</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>主任</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>280000</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2018-04-01</t>
+          <t>課長</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>400000</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>suzuki.h@example.com</t>
+          <t>ito.m@example.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>佐藤一郎</t>
+          <t>小林裕子</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>技術部</t>
+          <t>財務部</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>部長</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>450000</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2010-04-01</t>
+          <t>課長</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>380000</v>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sato.i@example.com</t>
+          <t>kobayashi.y@example.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>田中美咲</t>
+          <t>山田太郎</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,20 +592,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>社員</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>250000</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2020-04-01</t>
+          <t>課長</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>350000</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>tanaka.m@example.com</t>
+          <t>yamada.t@example.com</t>
         </is>
       </c>
     </row>
@@ -621,10 +628,10 @@
           <t>主任</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>300000</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>2017-04-01</t>
         </is>
@@ -637,11 +644,11 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>小林裕子</t>
+          <t>高橋恵子</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,68 +658,68 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>課長</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>380000</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2016-04-01</t>
+          <t>主任</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>290000</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>2018-04-01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>kobayashi.y@example.com</t>
+          <t>takahashi.k@example.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>加藤誠</t>
+          <t>鈴木花子</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>営業部</t>
+          <t>人事部</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>社員</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>250000</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2021-04-01</t>
+          <t>主任</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>280000</v>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>2018-04-01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>kato.m@example.com</t>
+          <t>suzuki.h@example.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>渡辺春香</t>
+          <t>田中美咲</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>人事部</t>
+          <t>営業部</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -720,87 +727,88 @@
           <t>社員</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2" t="n">
         <v>250000</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2019-04-01</t>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>watanabe.h@example.com</t>
+          <t>tanaka.m@example.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>伊藤光男</t>
+          <t>加藤誠</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>技術部</t>
+          <t>営業部</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>課長</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>400000</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2012-04-01</t>
+          <t>社員</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>250000</v>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>2021-04-01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ito.m@example.com</t>
+          <t>kato.m@example.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>高橋恵子</t>
+          <t>渡辺春香</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>財務部</t>
+          <t>人事部</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>主任</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>290000</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2018-04-01</t>
+          <t>社員</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>250000</v>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>2019-04-01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>takahashi.k@example.com</t>
+          <t>watanabe.h@example.com</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G11"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>